--- a/flows/MLPA_fund_flow_data.xlsx
+++ b/flows/MLPA_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2984"/>
+  <dimension ref="A1:B3000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30275,6 +30275,166 @@
         <v>-0.009084963</v>
       </c>
     </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2985" t="n">
+        <v>0.14389567</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2986" t="n">
+        <v>1.021864</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2987" t="n">
+        <v>2.6647904</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2988" t="n">
+        <v>0.036305185</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2989" t="n">
+        <v>0.9753201</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2990" t="n">
+        <v>0.03810032</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2991" t="n">
+        <v>-0.079739824</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2992" t="n">
+        <v>0.105777904</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2993" t="n">
+        <v>1.146799</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2994" t="n">
+        <v>3.8165421</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2995" t="n">
+        <v>0.10029077</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2996" t="n">
+        <v>-0.1332936</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2997" t="n">
+        <v>0.046050105</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2998" t="n">
+        <v>-2.3650699</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2999" t="n">
+        <v>0.19699195</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3000" t="n">
+        <v>0.37438163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
